--- a/Utils/Excel To Json/bin/netcoreapp3.1/Round.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Round.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1AE6EE-2E1F-483D-BCC1-54E51F2DC9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30491451-1EBB-4802-AF5A-B17DFEDD8DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="4695" windowWidth="25830" windowHeight="11625" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-28800" yWindow="4695" windowWidth="25830" windowHeight="11625" activeTab="1" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="RTD" sheetId="5" r:id="rId1"/>
+    <sheet name="SNAKE" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>2001,2002</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +67,13 @@
   </si>
   <si>
     <t>amounts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002,2001</t>
+  </si>
+  <si>
+    <t>2002,2001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,7 +436,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,9 +446,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53B544D-229D-4A5B-BFF8-79DA3F65400C}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -508,4 +516,73 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F376313-B711-452A-9AF7-8845E176D205}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A6" xr:uid="{3D8757C9-639E-488A-8A52-5D03EF007E57}">
+      <formula1>COUNTIFS($A:$A,A1)=1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>